--- a/tests/xlsx/number.xlsx
+++ b/tests/xlsx/number.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3416940-F29A-41C7-A780-397EED76AAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C34FD606-4065-436D-BE34-32AAF4DAEF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,27 +377,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="C2">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="B1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B2">
         <v>4</v>
       </c>
     </row>
